--- a/storage/app/utils/Categories.xlsx
+++ b/storage/app/utils/Categories.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\gestionpublica\storage\app\utils\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\carlo\Documents\Proyectos_de_Desarrollo\PPY_MUNDO_WEB\gestionpublica\storage\app\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47722BF8-4D25-4953-A193-38807F79E53A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7731ECC2-1461-4CD6-9C61-30ADBA824D80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Id</t>
   </si>
@@ -33,50 +33,17 @@
     <t>Categorias</t>
   </si>
   <si>
-    <t>Desarrollo</t>
+    <t>Diplomados</t>
   </si>
   <si>
-    <t>Negocios</t>
-  </si>
-  <si>
-    <t>Finanzas y contabilidad</t>
-  </si>
-  <si>
-    <t>Informática y software</t>
-  </si>
-  <si>
-    <t>Productividad en la oficina</t>
-  </si>
-  <si>
-    <t>Desarrollo personal</t>
-  </si>
-  <si>
-    <t>Diseño</t>
-  </si>
-  <si>
-    <t>Marketing</t>
-  </si>
-  <si>
-    <t>Estilo de vida</t>
-  </si>
-  <si>
-    <t>Fotografía y vídeo</t>
-  </si>
-  <si>
-    <t>Salud y fitness</t>
-  </si>
-  <si>
-    <t>Música</t>
-  </si>
-  <si>
-    <t>Enseñanzas y disciplinas académicas</t>
+    <t>Cursos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,6 +64,14 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -112,7 +87,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -163,67 +138,11 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -232,23 +151,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -529,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -541,117 +452,32 @@
     <col min="2" max="2" width="33.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>2</v>
       </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>4</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>5</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>6</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>7</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>8</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>9</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>10</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>11</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
-        <v>12</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="4">
-        <v>13</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>14</v>
-      </c>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C4" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/storage/app/utils/Categories.xlsx
+++ b/storage/app/utils/Categories.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\carlo\Documents\Proyectos_de_Desarrollo\PPY_MUNDO_WEB\gestionpublica\storage\app\utils\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\Academia San Fernando\storage\app\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7731ECC2-1461-4CD6-9C61-30ADBA824D80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8928656-217D-404D-A3CF-1E0ADFF8E1F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Id</t>
   </si>
@@ -33,10 +33,13 @@
     <t>Categorias</t>
   </si>
   <si>
-    <t>Diplomados</t>
+    <t>ENAM</t>
   </si>
   <si>
-    <t>Cursos</t>
+    <t>SERUMS</t>
+  </si>
+  <si>
+    <t>ENARM</t>
   </si>
 </sst>
 </file>
@@ -443,7 +446,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -465,7 +468,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -477,6 +480,12 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
       <c r="C4" s="5"/>
     </row>
   </sheetData>
